--- a/Improgress/2. Artifact and Deliverable/Test case/testreport.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/testreport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537DA53-D194-4A9B-B775-5B312A3567BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3EDE6-189F-4FE1-8208-B9A9D2F7FD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Platform">'[1]Product Backlog'!$L$4:$L$6</definedName>
     <definedName name="Priority">'[1]Product Backlog'!$M$4:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1102,6 +1102,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,9 +1189,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,22 +1201,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,17 +1213,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,51 +1238,11 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Bình thường 2" xfId="1" xr:uid="{BC123D7E-EEC2-44B8-A89A-EAB74A7BF003}"/>
     <cellStyle name="Bình thường 3" xfId="2" xr:uid="{AD2C2090-4C6C-4E85-A652-F964DFEC39CC}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="332">
     <dxf>
@@ -4581,7 +4581,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4718,6 +4718,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5548-4AAC-99A9-8352DD0173A2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4738,6 +4743,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5548-4AAC-99A9-8352DD0173A2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4870,7 +4880,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6487,7 +6497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6798,18 +6808,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -6817,16 +6827,16 @@
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -6834,121 +6844,121 @@
       <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="40"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="12"/>
       <c r="L4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="12"/>
       <c r="L5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="12"/>
       <c r="L6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="12"/>
       <c r="L7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="10"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -6956,16 +6966,16 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="10"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -6973,16 +6983,16 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="10"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -6990,35 +7000,35 @@
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17" t="s">
         <v>94</v>
@@ -7034,16 +7044,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="12"/>
       <c r="L13" s="18" t="s">
         <v>98</v>
@@ -7059,16 +7069,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="12"/>
       <c r="L14" s="22"/>
       <c r="M14" s="23"/>
@@ -7076,16 +7086,16 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="12"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
@@ -7093,16 +7103,16 @@
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="12"/>
       <c r="L16" s="24"/>
       <c r="M16" s="25"/>
@@ -7110,16 +7120,16 @@
       <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="12"/>
       <c r="L17" s="24"/>
       <c r="M17" s="25"/>
@@ -7127,16 +7137,16 @@
       <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="12"/>
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
@@ -7144,16 +7154,16 @@
       <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="12"/>
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
@@ -7161,16 +7171,16 @@
       <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="12"/>
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
@@ -7214,18 +7224,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -7260,13 +7270,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -7284,9 +7294,9 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
@@ -7302,9 +7312,9 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
@@ -7320,9 +7330,9 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
@@ -7338,11 +7348,11 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7360,9 +7370,9 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7378,9 +7388,9 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
@@ -7396,9 +7406,9 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
@@ -7414,9 +7424,9 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
@@ -7432,9 +7442,9 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
@@ -7450,9 +7460,9 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
@@ -7468,9 +7478,9 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
@@ -7486,9 +7496,9 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
@@ -7504,9 +7514,9 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="9" t="s">
         <v>74</v>
       </c>
@@ -7522,9 +7532,9 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="9" t="s">
         <v>74</v>
       </c>
@@ -7540,9 +7550,9 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
@@ -7558,11 +7568,11 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="61" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7580,9 +7590,9 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
@@ -7598,9 +7608,9 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
@@ -7616,9 +7626,9 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
@@ -7634,9 +7644,9 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="9" t="s">
         <v>27</v>
       </c>
@@ -7652,13 +7662,13 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -7676,9 +7686,9 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="9" t="s">
         <v>30</v>
       </c>
@@ -7694,9 +7704,9 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="9" t="s">
         <v>31</v>
       </c>
@@ -7712,9 +7722,9 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="9" t="s">
         <v>32</v>
       </c>
@@ -7730,9 +7740,9 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="9" t="s">
         <v>33</v>
       </c>
@@ -7748,9 +7758,9 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="9" t="s">
         <v>34</v>
       </c>
@@ -7766,9 +7776,9 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="9" t="s">
         <v>35</v>
       </c>
@@ -7784,9 +7794,9 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
@@ -7802,13 +7812,13 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="61" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -7826,9 +7836,9 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="9" t="s">
         <v>39</v>
       </c>
@@ -7844,9 +7854,9 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="9" t="s">
         <v>40</v>
       </c>
@@ -7862,9 +7872,9 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="9" t="s">
         <v>41</v>
       </c>
@@ -7880,9 +7890,9 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="9" t="s">
         <v>42</v>
       </c>
@@ -7898,9 +7908,9 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="9" t="s">
         <v>43</v>
       </c>
@@ -7916,9 +7926,9 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="9" t="s">
         <v>44</v>
       </c>
@@ -7934,9 +7944,9 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="9" t="s">
         <v>45</v>
       </c>
@@ -7952,9 +7962,9 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="9" t="s">
         <v>46</v>
       </c>
@@ -7970,9 +7980,9 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="9" t="s">
         <v>47</v>
       </c>
@@ -7988,9 +7998,9 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="9" t="s">
         <v>48</v>
       </c>
@@ -8006,9 +8016,9 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="9" t="s">
         <v>49</v>
       </c>
@@ -8024,9 +8034,9 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="9" t="s">
         <v>50</v>
       </c>
@@ -8042,9 +8052,9 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="9" t="s">
         <v>51</v>
       </c>
@@ -8060,9 +8070,9 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="9" t="s">
         <v>52</v>
       </c>
@@ -8078,9 +8088,9 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="9" t="s">
         <v>53</v>
       </c>
@@ -8096,9 +8106,9 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="9" t="s">
         <v>54</v>
       </c>
@@ -8114,9 +8124,9 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="9" t="s">
         <v>40</v>
       </c>
@@ -8132,9 +8142,9 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="9" t="s">
         <v>41</v>
       </c>
@@ -8150,13 +8160,13 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="61" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -8174,9 +8184,9 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="9" t="s">
         <v>57</v>
       </c>
@@ -8192,9 +8202,9 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="9" t="s">
         <v>58</v>
       </c>
@@ -8210,9 +8220,9 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="9" t="s">
         <v>59</v>
       </c>
@@ -8228,9 +8238,9 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="9" t="s">
         <v>60</v>
       </c>
@@ -8246,9 +8256,9 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="9" t="s">
         <v>61</v>
       </c>
@@ -8264,9 +8274,9 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="9" t="s">
         <v>62</v>
       </c>
@@ -8282,9 +8292,9 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="9" t="s">
         <v>63</v>
       </c>
@@ -8300,9 +8310,9 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="9" t="s">
         <v>64</v>
       </c>
@@ -8318,11 +8328,11 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="61" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -8340,9 +8350,9 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="9" t="s">
         <v>69</v>
       </c>
@@ -8367,6 +8377,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:A50"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B18"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C3:C6"/>
@@ -8383,9 +8396,6 @@
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="B51:B59"/>
     <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A50"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B18"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E18">
@@ -9668,7 +9678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7128E3-2481-4102-BD89-0F34EEEF4D97}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C9" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -9676,7 +9686,7 @@
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="39" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
@@ -9689,631 +9699,631 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="36">
         <v>15</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="37">
         <v>0</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="37">
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="36">
         <v>3</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="36">
         <v>3</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
       <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="36">
         <v>5</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="37">
         <v>0</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="36">
         <v>0</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="36">
         <v>0</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="36">
         <v>6</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="37">
         <v>0</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="37">
         <v>0</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="36">
         <v>0</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="36">
         <v>0</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="36">
         <v>4</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="37">
         <v>1</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="37">
         <v>0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="37">
         <v>0</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="36">
         <v>0</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="36">
         <v>0</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="36">
         <v>8</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="37">
         <v>1</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="37">
         <v>0</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="37">
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="36">
         <v>1</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="36">
         <v>1</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="61" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="36">
         <v>15</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="37">
         <v>0.93</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="36">
         <v>5</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="36">
         <v>4</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="36">
         <v>18</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="37">
         <v>0</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="37">
         <v>0</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="36">
         <v>1</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="36">
         <v>1</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="61" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="36">
         <v>14</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="37">
         <v>1</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="37">
         <v>0</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="37">
         <v>0</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="36">
         <v>1</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="36">
         <v>1</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="61" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="36">
         <v>4</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="37">
         <v>1</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="37">
         <v>1</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="37">
         <v>0</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="37">
         <v>0</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="36">
         <v>1</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="36">
         <v>1</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="36">
         <v>4</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="37">
         <v>1</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="37">
         <v>1</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="37">
         <v>0</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="37">
         <v>0</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="36">
         <v>0</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="36">
         <v>0</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="36">
         <v>4</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="37">
         <v>0</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="37">
         <v>0</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="36">
         <v>0</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="36">
         <v>0</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="36">
         <v>10</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="37">
         <v>1</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="37">
         <v>0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="37">
         <v>0</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="36">
         <v>0</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="36">
         <v>0</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="59"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="36">
         <v>13</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="37">
         <v>0</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="37">
         <v>0</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="37">
         <v>0</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="37">
         <v>0</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="36">
         <v>0</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="36">
         <v>0</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="59"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="61" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="36">
         <v>4</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="37">
         <v>1</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="37">
         <v>0.5</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="37">
         <v>0.5</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="37">
         <v>0.5</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="36">
         <v>2</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="36">
         <v>0</v>
       </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="36">
         <v>5</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="37">
         <v>0.6</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="37">
         <v>0.4</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="37">
         <v>0.4</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="36">
         <v>2</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="36">
         <v>0</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="36">
         <v>20</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="37">
         <v>1</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="37">
         <v>0</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="37">
         <v>1</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="37">
         <v>1</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="36">
         <v>20</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="36">
         <v>0</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="61" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="36">
         <v>5</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="37">
         <v>0</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="37">
         <v>0</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="36">
         <v>0</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="36">
         <v>0</v>
       </c>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="61" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="36">
         <v>14</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="37">
         <v>1</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="37">
         <v>1</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="37">
         <v>0</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="37">
         <v>0</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="36">
         <v>0</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="36">
         <v>0</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="61" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10334,8 +10344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40566D28-21C4-44E4-ABBE-5B604C2764AF}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10349,279 +10359,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="67"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="38">
         <v>10</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="37">
         <v>0</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="36">
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="36">
         <v>0</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="68"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="38">
         <v>17</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="37">
         <v>0.94</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="37">
         <v>0.06</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="37">
         <v>0.06</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="36">
         <v>1</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="36">
         <v>1</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="70" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="42">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="38">
         <v>4</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="37">
         <v>0.75</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="37">
         <v>0.25</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="37">
         <v>0.25</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="36">
         <v>4</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="36">
         <v>3</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="71" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="38">
         <v>19</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="37">
         <v>0.79</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="37">
         <v>0.21</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="37">
         <v>0.21</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="36">
         <v>6</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="36">
         <v>2</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="42">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="38">
         <v>17</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="37">
         <v>0.76</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="37">
         <v>0.24</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="37">
         <v>0.24</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="36">
         <v>7</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="36">
         <v>3</v>
       </c>
-      <c r="K7" s="59"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="45">
         <v>0.88059701499999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="45">
         <v>0.119402985</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="45">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10633,7 +10643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BC5FF-6919-4709-9797-234C15603864}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -10645,20 +10655,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -10699,10 +10709,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -10719,8 +10729,8 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
@@ -10735,8 +10745,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
@@ -10751,8 +10761,8 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
@@ -10767,8 +10777,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
@@ -10783,8 +10793,8 @@
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
@@ -10799,8 +10809,8 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
@@ -10815,8 +10825,8 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
@@ -10831,8 +10841,8 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
@@ -10847,8 +10857,8 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>47</v>
       </c>
@@ -10863,8 +10873,8 @@
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>48</v>
       </c>
@@ -10879,8 +10889,8 @@
       <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
@@ -10895,8 +10905,8 @@
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
         <v>50</v>
       </c>
@@ -10911,8 +10921,8 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
@@ -10927,8 +10937,8 @@
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
@@ -10943,8 +10953,8 @@
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
@@ -10959,8 +10969,8 @@
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
@@ -10975,8 +10985,8 @@
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
@@ -10991,8 +11001,8 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="9" t="s">
         <v>41</v>
       </c>
@@ -11027,20 +11037,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -11081,10 +11091,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="61" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -11101,8 +11111,8 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
@@ -11117,8 +11127,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
@@ -11133,8 +11143,8 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
@@ -11149,8 +11159,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
@@ -11165,8 +11175,8 @@
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
@@ -11181,8 +11191,8 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>62</v>
       </c>
@@ -11197,8 +11207,8 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
@@ -11213,8 +11223,8 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="9" t="s">
         <v>64</v>
       </c>
@@ -11229,10 +11239,10 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="61" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -11249,8 +11259,8 @@
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="9" t="s">
         <v>69</v>
       </c>
@@ -11277,6 +11287,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C67113431583B94C8A6DA25208A99150" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e368f08993c02c073d893c0ffb464f68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5179f4ed-0456-4033-bb07-b902202718e4" xmlns:ns4="2fe4d6ba-7215-4b36-8902-32f95bc89ed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea0fcb86f04032baf93603fe41017e0" ns3:_="" ns4:_="">
     <xsd:import namespace="5179f4ed-0456-4033-bb07-b902202718e4"/>
@@ -11447,36 +11472,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
-    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11499,9 +11498,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
+    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>